--- a/QA/Tests/FTP/Running/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/FTP/Running/_Test_Suite_Statistics.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Title</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>Suited to Manual</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>Ready to Write</t>
   </si>
 </sst>
 </file>
@@ -178,7 +184,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -242,6 +248,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -296,147 +309,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF00B0F0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FF66FF66"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF00B0F0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FF66FF66"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -825,7 +697,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,7 +734,7 @@
       </c>
       <c r="G1" s="6">
         <f>COUNTIF($D:$D,"Ready to Write")+COUNTIF($D:$D,"Outdated")+COUNTIF($D:$D,"Testing")</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
@@ -877,20 +749,20 @@
         <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="6">
         <f>COUNTIF($D:$D,"Automated")+COUNTIF($D:$D,"Finished")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -898,13 +770,13 @@
         <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="6"/>
@@ -920,7 +792,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>7</v>
@@ -948,7 +820,7 @@
       </c>
       <c r="G5" s="3">
         <f>SUM($B:$B)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -969,7 +841,7 @@
       </c>
       <c r="G6" s="8">
         <f>G5/G4</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1043,86 +915,86 @@
     <sortCondition ref="A2"/>
   </sortState>
   <conditionalFormatting sqref="D10:D49 D2:D4">
-    <cfRule type="notContainsBlanks" dxfId="39" priority="25" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="25" stopIfTrue="1">
       <formula>LEN(TRIM(D2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D1048576 D1:D4">
-    <cfRule type="containsText" dxfId="38" priority="17" stopIfTrue="1" operator="containsText" text="Finished">
+    <cfRule type="containsText" dxfId="22" priority="17" stopIfTrue="1" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="18" stopIfTrue="1" operator="containsText" text="Automated">
+    <cfRule type="containsText" dxfId="21" priority="18" stopIfTrue="1" operator="containsText" text="Automated">
       <formula>NOT(ISERROR(SEARCH("Automated",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="19" stopIfTrue="1" operator="containsText" text="Under Review">
+    <cfRule type="containsText" dxfId="20" priority="19" stopIfTrue="1" operator="containsText" text="Under Review">
       <formula>NOT(ISERROR(SEARCH("Under Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="20" stopIfTrue="1" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="19" priority="20" stopIfTrue="1" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH("Testing",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="21" stopIfTrue="1" operator="containsText" text="Writing">
+    <cfRule type="containsText" dxfId="18" priority="21" stopIfTrue="1" operator="containsText" text="Writing">
       <formula>NOT(ISERROR(SEARCH("Writing",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="22" stopIfTrue="1" operator="containsText" text="Ready to Write">
+    <cfRule type="containsText" dxfId="17" priority="22" stopIfTrue="1" operator="containsText" text="Ready to Write">
       <formula>NOT(ISERROR(SEARCH("Ready to Write",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="23" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
+    <cfRule type="containsText" dxfId="16" priority="23" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
       <formula>NOT(ISERROR(SEARCH("Unwritten Keywords",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D8">
-    <cfRule type="notContainsBlanks" dxfId="31" priority="16" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="16" stopIfTrue="1">
       <formula>LEN(TRIM(D5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D8">
-    <cfRule type="containsText" dxfId="29" priority="9" stopIfTrue="1" operator="containsText" text="Finished">
+    <cfRule type="containsText" dxfId="14" priority="9" stopIfTrue="1" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="10" stopIfTrue="1" operator="containsText" text="Automated">
+    <cfRule type="containsText" dxfId="13" priority="10" stopIfTrue="1" operator="containsText" text="Automated">
       <formula>NOT(ISERROR(SEARCH("Automated",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="11" stopIfTrue="1" operator="containsText" text="Under Review">
+    <cfRule type="containsText" dxfId="12" priority="11" stopIfTrue="1" operator="containsText" text="Under Review">
       <formula>NOT(ISERROR(SEARCH("Under Review",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="12" stopIfTrue="1" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="11" priority="12" stopIfTrue="1" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH("Testing",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="13" stopIfTrue="1" operator="containsText" text="Writing">
+    <cfRule type="containsText" dxfId="10" priority="13" stopIfTrue="1" operator="containsText" text="Writing">
       <formula>NOT(ISERROR(SEARCH("Writing",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="14" stopIfTrue="1" operator="containsText" text="Ready to Write">
+    <cfRule type="containsText" dxfId="9" priority="14" stopIfTrue="1" operator="containsText" text="Ready to Write">
       <formula>NOT(ISERROR(SEARCH("Ready to Write",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="15" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
+    <cfRule type="containsText" dxfId="8" priority="15" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
       <formula>NOT(ISERROR(SEARCH("Unwritten Keywords",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="8" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="8" stopIfTrue="1">
       <formula>LEN(TRIM(D9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="13" priority="1" stopIfTrue="1" operator="containsText" text="Finished">
+    <cfRule type="containsText" dxfId="6" priority="1" stopIfTrue="1" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" stopIfTrue="1" operator="containsText" text="Automated">
+    <cfRule type="containsText" dxfId="5" priority="2" stopIfTrue="1" operator="containsText" text="Automated">
       <formula>NOT(ISERROR(SEARCH("Automated",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="3" stopIfTrue="1" operator="containsText" text="Under Review">
+    <cfRule type="containsText" dxfId="4" priority="3" stopIfTrue="1" operator="containsText" text="Under Review">
       <formula>NOT(ISERROR(SEARCH("Under Review",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="4" stopIfTrue="1" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="3" priority="4" stopIfTrue="1" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH("Testing",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="5" stopIfTrue="1" operator="containsText" text="Writing">
+    <cfRule type="containsText" dxfId="2" priority="5" stopIfTrue="1" operator="containsText" text="Writing">
       <formula>NOT(ISERROR(SEARCH("Writing",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="6" stopIfTrue="1" operator="containsText" text="Ready to Write">
+    <cfRule type="containsText" dxfId="1" priority="6" stopIfTrue="1" operator="containsText" text="Ready to Write">
       <formula>NOT(ISERROR(SEARCH("Ready to Write",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="7" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
+    <cfRule type="containsText" dxfId="0" priority="7" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
       <formula>NOT(ISERROR(SEARCH("Unwritten Keywords",D9)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/QA/Tests/FTP/Running/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/FTP/Running/_Test_Suite_Statistics.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Title</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Ready to Write</t>
+  </si>
+  <si>
+    <t>Automated</t>
   </si>
 </sst>
 </file>
@@ -697,7 +700,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +737,7 @@
       </c>
       <c r="G1" s="6">
         <f>COUNTIF($D:$D,"Ready to Write")+COUNTIF($D:$D,"Outdated")+COUNTIF($D:$D,"Testing")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
@@ -762,7 +765,7 @@
       </c>
       <c r="G2" s="6">
         <f>COUNTIF($D:$D,"Automated")+COUNTIF($D:$D,"Finished")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -807,20 +810,20 @@
         <v>14</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="3">
         <f>SUM($B:$B)</f>
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -841,7 +844,7 @@
       </c>
       <c r="G6" s="8">
         <f>G5/G4</f>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -849,13 +852,13 @@
         <v>16</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">

--- a/QA/Tests/FTP/Running/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/FTP/Running/_Test_Suite_Statistics.xlsx
@@ -700,7 +700,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,7 +737,7 @@
       </c>
       <c r="G1" s="6">
         <f>COUNTIF($D:$D,"Ready to Write")+COUNTIF($D:$D,"Outdated")+COUNTIF($D:$D,"Testing")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
@@ -765,7 +765,7 @@
       </c>
       <c r="G2" s="6">
         <f>COUNTIF($D:$D,"Automated")+COUNTIF($D:$D,"Finished")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -823,7 +823,7 @@
       </c>
       <c r="G5" s="3">
         <f>SUM($B:$B)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
       </c>
       <c r="G6" s="8">
         <f>G5/G4</f>
-        <v>0.66666666666666663</v>
+        <v>0.81481481481481477</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -866,13 +866,13 @@
         <v>17</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
